--- a/QGB_5yr_results_HAK.xlsx
+++ b/QGB_5yr_results_HAK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ulrik/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E82A762-7EDB-9740-9002-8EA83B37E557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5157C677-9D93-8B4D-8C3F-F0835477CBA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -89,10 +89,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +102,13 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -147,7 +151,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V313"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
+      <selection activeCell="D299" sqref="D299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -531,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>32874</v>
+        <v>199001</v>
       </c>
       <c r="C2">
         <v>2.8811353834153949E-3</v>
@@ -599,7 +603,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>32905</v>
+        <v>199002</v>
       </c>
       <c r="C3">
         <v>4.5498521045443871E-3</v>
@@ -667,7 +671,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>32933</v>
+        <v>199003</v>
       </c>
       <c r="C4">
         <v>4.9873346219635028E-3</v>
@@ -735,7 +739,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>32964</v>
+        <v>199004</v>
       </c>
       <c r="C5">
         <v>5.0259380964066507E-3</v>
@@ -803,7 +807,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>32994</v>
+        <v>199005</v>
       </c>
       <c r="C6">
         <v>6.0120703780065267E-3</v>
@@ -871,7 +875,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>33025</v>
+        <v>199006</v>
       </c>
       <c r="C7">
         <v>5.1297746364476222E-3</v>
@@ -939,7 +943,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>33055</v>
+        <v>199007</v>
       </c>
       <c r="C8">
         <v>5.6250369810980786E-3</v>
@@ -1007,7 +1011,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>33086</v>
+        <v>199008</v>
       </c>
       <c r="C9">
         <v>6.3036247981586337E-3</v>
@@ -1075,7 +1079,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>33117</v>
+        <v>199009</v>
       </c>
       <c r="C10">
         <v>7.9296244933608762E-3</v>
@@ -1143,7 +1147,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>33147</v>
+        <v>199010</v>
       </c>
       <c r="C11">
         <v>9.4538356573127327E-3</v>
@@ -1211,7 +1215,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>33178</v>
+        <v>199011</v>
       </c>
       <c r="C12">
         <v>9.5407610920372997E-3</v>
@@ -1279,7 +1283,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>33208</v>
+        <v>199012</v>
       </c>
       <c r="C13">
         <v>9.2122033344623107E-3</v>
@@ -1347,7 +1351,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>33239</v>
+        <v>199101</v>
       </c>
       <c r="C14">
         <v>9.0879196517636152E-3</v>
@@ -1415,7 +1419,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>33270</v>
+        <v>199102</v>
       </c>
       <c r="C15">
         <v>8.9983688851422647E-3</v>
@@ -1483,7 +1487,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>33298</v>
+        <v>199103</v>
       </c>
       <c r="C16">
         <v>7.9962238674234909E-3</v>
@@ -1551,7 +1555,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>33329</v>
+        <v>199104</v>
       </c>
       <c r="C17">
         <v>7.7589259961275249E-3</v>
@@ -1619,7 +1623,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>33359</v>
+        <v>199105</v>
       </c>
       <c r="C18">
         <v>8.0167805214398542E-3</v>
@@ -1687,7 +1691,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>33390</v>
+        <v>199106</v>
       </c>
       <c r="C19">
         <v>7.7275402018305078E-3</v>
@@ -1755,7 +1759,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>33420</v>
+        <v>199107</v>
       </c>
       <c r="C20">
         <v>8.572238390411973E-3</v>
@@ -1823,7 +1827,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>33451</v>
+        <v>199108</v>
       </c>
       <c r="C21">
         <v>7.0935914809183154E-3</v>
@@ -1891,7 +1895,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>33482</v>
+        <v>199109</v>
       </c>
       <c r="C22">
         <v>7.0357952468674606E-3</v>
@@ -1959,7 +1963,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>33512</v>
+        <v>199110</v>
       </c>
       <c r="C23">
         <v>8.2296341220536237E-3</v>
@@ -2027,7 +2031,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>33543</v>
+        <v>199111</v>
       </c>
       <c r="C24">
         <v>8.4922196837400894E-3</v>
@@ -2095,7 +2099,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>33573</v>
+        <v>199112</v>
       </c>
       <c r="C25">
         <v>1.036459542791022E-2</v>
@@ -2163,7 +2167,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>33604</v>
+        <v>199201</v>
       </c>
       <c r="C26">
         <v>8.2268578982624442E-3</v>
@@ -2231,7 +2235,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>33635</v>
+        <v>199202</v>
       </c>
       <c r="C27">
         <v>9.5765782664872668E-3</v>
@@ -2299,7 +2303,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2">
-        <v>33664</v>
+        <v>199203</v>
       </c>
       <c r="C28">
         <v>9.4433594349256095E-3</v>
@@ -2367,7 +2371,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2">
-        <v>33695</v>
+        <v>199204</v>
       </c>
       <c r="C29">
         <v>9.0556571961188728E-3</v>
@@ -2435,7 +2439,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2">
-        <v>33725</v>
+        <v>199205</v>
       </c>
       <c r="C30">
         <v>9.5498596784245968E-3</v>
@@ -2503,7 +2507,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2">
-        <v>33756</v>
+        <v>199206</v>
       </c>
       <c r="C31">
         <v>1.041055720445795E-2</v>
@@ -2571,7 +2575,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2">
-        <v>33786</v>
+        <v>199207</v>
       </c>
       <c r="C32">
         <v>1.1381109314416001E-2</v>
@@ -2639,7 +2643,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2">
-        <v>33817</v>
+        <v>199208</v>
       </c>
       <c r="C33">
         <v>1.1981683465635291E-2</v>
@@ -2707,7 +2711,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2">
-        <v>33848</v>
+        <v>199209</v>
       </c>
       <c r="C34">
         <v>1.1326601918543171E-2</v>
@@ -2775,7 +2779,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="2">
-        <v>33878</v>
+        <v>199210</v>
       </c>
       <c r="C35">
         <v>1.201414476270952E-2</v>
@@ -2843,7 +2847,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="2">
-        <v>33909</v>
+        <v>199211</v>
       </c>
       <c r="C36">
         <v>1.1361531528928369E-2</v>
@@ -2911,7 +2915,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="2">
-        <v>33939</v>
+        <v>199212</v>
       </c>
       <c r="C37">
         <v>1.151114528948621E-2</v>
@@ -2979,7 +2983,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2">
-        <v>33970</v>
+        <v>199301</v>
       </c>
       <c r="C38">
         <v>1.157932711158581E-2</v>
@@ -3047,7 +3051,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="2">
-        <v>34001</v>
+        <v>199302</v>
       </c>
       <c r="C39">
         <v>1.1595379097246559E-2</v>
@@ -3115,7 +3119,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="2">
-        <v>34029</v>
+        <v>199303</v>
       </c>
       <c r="C40">
         <v>1.247892552642804E-2</v>
@@ -3183,7 +3187,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="2">
-        <v>34060</v>
+        <v>199304</v>
       </c>
       <c r="C41">
         <v>1.2959702796783049E-2</v>
@@ -3251,7 +3255,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="2">
-        <v>34090</v>
+        <v>199305</v>
       </c>
       <c r="C42">
         <v>1.3497501314433049E-2</v>
@@ -3319,7 +3323,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="2">
-        <v>34121</v>
+        <v>199306</v>
       </c>
       <c r="C43">
         <v>1.272400103064612E-2</v>
@@ -3387,7 +3391,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="2">
-        <v>34151</v>
+        <v>199307</v>
       </c>
       <c r="C44">
         <v>1.33362401842655E-2</v>
@@ -3455,7 +3459,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="2">
-        <v>34182</v>
+        <v>199308</v>
       </c>
       <c r="C45">
         <v>1.3189449986576989E-2</v>
@@ -3523,7 +3527,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="2">
-        <v>34213</v>
+        <v>199309</v>
       </c>
       <c r="C46">
         <v>9.9223444833030916E-3</v>
@@ -3591,7 +3595,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="2">
-        <v>34243</v>
+        <v>199310</v>
       </c>
       <c r="C47">
         <v>1.10872204164606E-2</v>
@@ -3659,7 +3663,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="2">
-        <v>34274</v>
+        <v>199311</v>
       </c>
       <c r="C48">
         <v>1.2014979569924479E-2</v>
@@ -3727,7 +3731,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="2">
-        <v>34304</v>
+        <v>199312</v>
       </c>
       <c r="C49">
         <v>1.3109902216549389E-2</v>
@@ -3795,7 +3799,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="2">
-        <v>34335</v>
+        <v>199401</v>
       </c>
       <c r="C50">
         <v>1.385132156712483E-2</v>
@@ -3863,7 +3867,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="2">
-        <v>34366</v>
+        <v>199402</v>
       </c>
       <c r="C51">
         <v>1.397693662394551E-2</v>
@@ -3931,7 +3935,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="2">
-        <v>34394</v>
+        <v>199403</v>
       </c>
       <c r="C52">
         <v>1.3843077658151889E-2</v>
@@ -3999,7 +4003,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="2">
-        <v>34425</v>
+        <v>199404</v>
       </c>
       <c r="C53">
         <v>1.524904602474204E-2</v>
@@ -4067,7 +4071,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="2">
-        <v>34455</v>
+        <v>199405</v>
       </c>
       <c r="C54">
         <v>1.566281801584448E-2</v>
@@ -4135,7 +4139,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="2">
-        <v>34486</v>
+        <v>199406</v>
       </c>
       <c r="C55">
         <v>1.4945304886097769E-2</v>
@@ -4203,7 +4207,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="2">
-        <v>34516</v>
+        <v>199407</v>
       </c>
       <c r="C56">
         <v>1.6281734527979999E-2</v>
@@ -4271,7 +4275,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="2">
-        <v>34547</v>
+        <v>199408</v>
       </c>
       <c r="C57">
         <v>1.522089229308486E-2</v>
@@ -4339,7 +4343,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="2">
-        <v>34578</v>
+        <v>199409</v>
       </c>
       <c r="C58">
         <v>1.4421712290243281E-2</v>
@@ -4407,7 +4411,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="2">
-        <v>34608</v>
+        <v>199410</v>
       </c>
       <c r="C59">
         <v>1.439313365729436E-2</v>
@@ -4475,7 +4479,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="2">
-        <v>34639</v>
+        <v>199411</v>
       </c>
       <c r="C60">
         <v>1.5068123216638149E-2</v>
@@ -4543,7 +4547,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="2">
-        <v>34669</v>
+        <v>199412</v>
       </c>
       <c r="C61">
         <v>1.5971851468943941E-2</v>
@@ -4611,7 +4615,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="2">
-        <v>34700</v>
+        <v>199501</v>
       </c>
       <c r="C62">
         <v>1.6709355372475861E-2</v>
@@ -4679,7 +4683,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="2">
-        <v>34731</v>
+        <v>199502</v>
       </c>
       <c r="C63">
         <v>1.545174366768419E-2</v>
@@ -4747,7 +4751,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="2">
-        <v>34759</v>
+        <v>199503</v>
       </c>
       <c r="C64">
         <v>1.4448109184863091E-2</v>
@@ -4815,7 +4819,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="2">
-        <v>34790</v>
+        <v>199504</v>
       </c>
       <c r="C65">
         <v>1.555207145844377E-2</v>
@@ -4883,7 +4887,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="2">
-        <v>34820</v>
+        <v>199505</v>
       </c>
       <c r="C66">
         <v>1.458617107880166E-2</v>
@@ -4951,7 +4955,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="2">
-        <v>34851</v>
+        <v>199506</v>
       </c>
       <c r="C67">
         <v>1.3543076263831239E-2</v>
@@ -5019,7 +5023,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <v>34881</v>
+        <v>199507</v>
       </c>
       <c r="C68">
         <v>1.3596293666276869E-2</v>
@@ -5087,7 +5091,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="2">
-        <v>34912</v>
+        <v>199508</v>
       </c>
       <c r="C69">
         <v>1.2815878063405251E-2</v>
@@ -5155,7 +5159,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="2">
-        <v>34943</v>
+        <v>199509</v>
       </c>
       <c r="C70">
         <v>1.3719392481469139E-2</v>
@@ -5223,7 +5227,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="2">
-        <v>34973</v>
+        <v>199510</v>
       </c>
       <c r="C71">
         <v>1.215546237229969E-2</v>
@@ -5291,7 +5295,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="2">
-        <v>35004</v>
+        <v>199511</v>
       </c>
       <c r="C72">
         <v>1.215847313792395E-2</v>
@@ -5359,7 +5363,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="2">
-        <v>35034</v>
+        <v>199512</v>
       </c>
       <c r="C73">
         <v>1.0010862210252131E-2</v>
@@ -5427,7 +5431,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="2">
-        <v>35065</v>
+        <v>199601</v>
       </c>
       <c r="C74">
         <v>9.7986989112559854E-3</v>
@@ -5495,7 +5499,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="2">
-        <v>35096</v>
+        <v>199602</v>
       </c>
       <c r="C75">
         <v>9.8319942788954295E-3</v>
@@ -5563,7 +5567,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="2">
-        <v>35125</v>
+        <v>199603</v>
       </c>
       <c r="C76">
         <v>8.0195197516078863E-3</v>
@@ -5631,7 +5635,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="2">
-        <v>35156</v>
+        <v>199604</v>
       </c>
       <c r="C77">
         <v>6.8010489429250866E-3</v>
@@ -5699,7 +5703,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="2">
-        <v>35186</v>
+        <v>199605</v>
       </c>
       <c r="C78">
         <v>7.8344406053935962E-3</v>
@@ -5767,7 +5771,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="2">
-        <v>35217</v>
+        <v>199606</v>
       </c>
       <c r="C79">
         <v>7.4634838368200802E-3</v>
@@ -5835,7 +5839,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="2">
-        <v>35247</v>
+        <v>199607</v>
       </c>
       <c r="C80">
         <v>7.0469586908483602E-3</v>
@@ -5903,7 +5907,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="2">
-        <v>35278</v>
+        <v>199608</v>
       </c>
       <c r="C81">
         <v>7.6909521861866399E-3</v>
@@ -5971,7 +5975,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="2">
-        <v>35309</v>
+        <v>199609</v>
       </c>
       <c r="C82">
         <v>6.210797439717349E-3</v>
@@ -6039,7 +6043,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="2">
-        <v>35339</v>
+        <v>199610</v>
       </c>
       <c r="C83">
         <v>3.9651409350822007E-3</v>
@@ -6107,7 +6111,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="2">
-        <v>35370</v>
+        <v>199611</v>
       </c>
       <c r="C84">
         <v>3.8847364376478981E-3</v>
@@ -6175,7 +6179,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="2">
-        <v>35400</v>
+        <v>199612</v>
       </c>
       <c r="C85">
         <v>3.853188078101566E-3</v>
@@ -6243,7 +6247,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="2">
-        <v>35431</v>
+        <v>199701</v>
       </c>
       <c r="C86">
         <v>4.4273236825727426E-3</v>
@@ -6311,7 +6315,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="2">
-        <v>35462</v>
+        <v>199702</v>
       </c>
       <c r="C87">
         <v>3.2416203708204908E-3</v>
@@ -6379,7 +6383,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="2">
-        <v>35490</v>
+        <v>199703</v>
       </c>
       <c r="C88">
         <v>2.7490730247044111E-3</v>
@@ -6447,7 +6451,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="2">
-        <v>35521</v>
+        <v>199704</v>
       </c>
       <c r="C89">
         <v>4.1650656754655584E-3</v>
@@ -6515,7 +6519,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="2">
-        <v>35551</v>
+        <v>199705</v>
       </c>
       <c r="C90">
         <v>2.2383675712098631E-3</v>
@@ -6583,7 +6587,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="2">
-        <v>35582</v>
+        <v>199706</v>
       </c>
       <c r="C91">
         <v>1.0920842268383479E-3</v>
@@ -6651,7 +6655,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="2">
-        <v>35612</v>
+        <v>199707</v>
       </c>
       <c r="C92">
         <v>-7.7191763172185538E-4</v>
@@ -6719,7 +6723,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="2">
-        <v>35643</v>
+        <v>199708</v>
       </c>
       <c r="C93">
         <v>-3.3092685286772649E-3</v>
@@ -6787,7 +6791,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="2">
-        <v>35674</v>
+        <v>199709</v>
       </c>
       <c r="C94">
         <v>-2.2884842116724928E-3</v>
@@ -6855,7 +6859,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="2">
-        <v>35704</v>
+        <v>199710</v>
       </c>
       <c r="C95">
         <v>-4.9935200857521992E-3</v>
@@ -6923,7 +6927,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="2">
-        <v>35735</v>
+        <v>199711</v>
       </c>
       <c r="C96">
         <v>-2.9339674746253078E-3</v>
@@ -6991,7 +6995,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="2">
-        <v>35765</v>
+        <v>199712</v>
       </c>
       <c r="C97">
         <v>-2.7753482293206388E-3</v>
@@ -7059,7 +7063,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="2">
-        <v>35796</v>
+        <v>199801</v>
       </c>
       <c r="C98">
         <v>-3.9816631223043514E-3</v>
@@ -7127,7 +7131,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="2">
-        <v>35827</v>
+        <v>199802</v>
       </c>
       <c r="C99">
         <v>-4.51467282666034E-3</v>
@@ -7195,7 +7199,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="2">
-        <v>35855</v>
+        <v>199803</v>
       </c>
       <c r="C100">
         <v>-5.9479952389345052E-3</v>
@@ -7263,7 +7267,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="2">
-        <v>35886</v>
+        <v>199804</v>
       </c>
       <c r="C101">
         <v>-6.5244406597863786E-3</v>
@@ -7331,7 +7335,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="2">
-        <v>35916</v>
+        <v>199805</v>
       </c>
       <c r="C102">
         <v>-5.2811028876504143E-3</v>
@@ -7399,7 +7403,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="2">
-        <v>35947</v>
+        <v>199806</v>
       </c>
       <c r="C103">
         <v>-4.1505856300519204E-3</v>
@@ -7467,7 +7471,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="2">
-        <v>35977</v>
+        <v>199807</v>
       </c>
       <c r="C104">
         <v>-4.5144826927001674E-3</v>
@@ -7535,7 +7539,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="2">
-        <v>36008</v>
+        <v>199808</v>
       </c>
       <c r="C105">
         <v>-3.9617653543538231E-3</v>
@@ -7603,7 +7607,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="2">
-        <v>36039</v>
+        <v>199809</v>
       </c>
       <c r="C106">
         <v>-1.052966247638103E-3</v>
@@ -7671,7 +7675,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="2">
-        <v>36069</v>
+        <v>199810</v>
       </c>
       <c r="C107">
         <v>-2.1660429953563572E-3</v>
@@ -7739,7 +7743,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="2">
-        <v>36100</v>
+        <v>199811</v>
       </c>
       <c r="C108">
         <v>-2.4727632250570002E-3</v>
@@ -7807,7 +7811,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="2">
-        <v>36130</v>
+        <v>199812</v>
       </c>
       <c r="C109">
         <v>-3.3254413246334839E-3</v>
@@ -7875,7 +7879,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="2">
-        <v>36161</v>
+        <v>199901</v>
       </c>
       <c r="C110">
         <v>-3.3276031669763708E-3</v>
@@ -7943,7 +7947,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="2">
-        <v>36192</v>
+        <v>199902</v>
       </c>
       <c r="C111">
         <v>-3.6474606465181901E-3</v>
@@ -8011,7 +8015,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="2">
-        <v>36220</v>
+        <v>199903</v>
       </c>
       <c r="C112">
         <v>-2.8934630949660691E-3</v>
@@ -8079,7 +8083,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="2">
-        <v>36251</v>
+        <v>199904</v>
       </c>
       <c r="C113">
         <v>-3.7146637769843991E-3</v>
@@ -8147,7 +8151,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="2">
-        <v>36281</v>
+        <v>199905</v>
       </c>
       <c r="C114">
         <v>-4.5525345772200951E-3</v>
@@ -8215,7 +8219,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="2">
-        <v>36312</v>
+        <v>199906</v>
       </c>
       <c r="C115">
         <v>-3.9219558032977768E-3</v>
@@ -8283,7 +8287,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="2">
-        <v>36342</v>
+        <v>199907</v>
       </c>
       <c r="C116">
         <v>-4.4191089905035036E-3</v>
@@ -8351,7 +8355,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="2">
-        <v>36373</v>
+        <v>199908</v>
       </c>
       <c r="C117">
         <v>-4.3983362984789812E-3</v>
@@ -8419,7 +8423,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="2">
-        <v>36404</v>
+        <v>199909</v>
       </c>
       <c r="C118">
         <v>-4.2401486963239091E-3</v>
@@ -8487,7 +8491,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="2">
-        <v>36434</v>
+        <v>199910</v>
       </c>
       <c r="C119">
         <v>-3.5205008354807052E-3</v>
@@ -8555,7 +8559,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="2">
-        <v>36465</v>
+        <v>199911</v>
       </c>
       <c r="C120">
         <v>-4.2431956127368629E-3</v>
@@ -8623,7 +8627,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="2">
-        <v>36495</v>
+        <v>199912</v>
       </c>
       <c r="C121">
         <v>-3.9105690367581634E-3</v>
@@ -8691,7 +8695,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="2">
-        <v>36526</v>
+        <v>200001</v>
       </c>
       <c r="C122">
         <v>-4.2420109666428474E-3</v>
@@ -8759,7 +8763,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="2">
-        <v>36557</v>
+        <v>200002</v>
       </c>
       <c r="C123">
         <v>-3.7390380151597728E-3</v>
@@ -8827,7 +8831,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="2">
-        <v>36586</v>
+        <v>200003</v>
       </c>
       <c r="C124">
         <v>-3.0765300769097928E-3</v>
@@ -8895,7 +8899,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="2">
-        <v>36617</v>
+        <v>200004</v>
       </c>
       <c r="C125">
         <v>-4.8613911945945476E-3</v>
@@ -8963,7 +8967,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="2">
-        <v>36647</v>
+        <v>200005</v>
       </c>
       <c r="C126">
         <v>-4.6182526516146032E-3</v>
@@ -9031,7 +9035,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="2">
-        <v>36678</v>
+        <v>200006</v>
       </c>
       <c r="C127">
         <v>-3.742626393690677E-3</v>
@@ -9099,7 +9103,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="2">
-        <v>36708</v>
+        <v>200007</v>
       </c>
       <c r="C128">
         <v>-4.0659209409631613E-3</v>
@@ -9167,7 +9171,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="2">
-        <v>36739</v>
+        <v>200008</v>
       </c>
       <c r="C129">
         <v>-3.145834422643799E-3</v>
@@ -9235,7 +9239,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="2">
-        <v>36770</v>
+        <v>200009</v>
       </c>
       <c r="C130">
         <v>-4.2972905758860676E-3</v>
@@ -9303,7 +9307,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="2">
-        <v>36800</v>
+        <v>200010</v>
       </c>
       <c r="C131">
         <v>-3.2020921743980291E-3</v>
@@ -9371,7 +9375,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="2">
-        <v>36831</v>
+        <v>200011</v>
       </c>
       <c r="C132">
         <v>-3.3588493806926182E-3</v>
@@ -9439,7 +9443,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="2">
-        <v>36861</v>
+        <v>200012</v>
       </c>
       <c r="C133">
         <v>-1.3784901883872531E-3</v>
@@ -9507,7 +9511,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="2">
-        <v>36892</v>
+        <v>200101</v>
       </c>
       <c r="C134">
         <v>-1.4019063301209729E-3</v>
@@ -9575,7 +9579,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="2">
-        <v>36923</v>
+        <v>200102</v>
       </c>
       <c r="C135">
         <v>-1.500175058376831E-3</v>
@@ -9643,7 +9647,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="2">
-        <v>36951</v>
+        <v>200103</v>
       </c>
       <c r="C136">
         <v>1.289988833315216E-4</v>
@@ -9711,7 +9715,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="2">
-        <v>36982</v>
+        <v>200104</v>
       </c>
       <c r="C137">
         <v>1.459323472843304E-3</v>
@@ -9779,7 +9783,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="2">
-        <v>37012</v>
+        <v>200105</v>
       </c>
       <c r="C138">
         <v>4.3562513988822842E-4</v>
@@ -9847,7 +9851,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="2">
-        <v>37043</v>
+        <v>200106</v>
       </c>
       <c r="C139">
         <v>-1.824472133851839E-4</v>
@@ -9915,7 +9919,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="2">
-        <v>37073</v>
+        <v>200107</v>
       </c>
       <c r="C140">
         <v>2.6138240897672022E-4</v>
@@ -9983,7 +9987,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="2">
-        <v>37104</v>
+        <v>200108</v>
       </c>
       <c r="C141">
         <v>5.0906706833053848E-4</v>
@@ -10051,7 +10055,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="2">
-        <v>37135</v>
+        <v>200109</v>
       </c>
       <c r="C142">
         <v>1.9369140345532889E-3</v>
@@ -10119,7 +10123,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="2">
-        <v>37165</v>
+        <v>200110</v>
       </c>
       <c r="C143">
         <v>3.7705750921905529E-3</v>
@@ -10187,7 +10191,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="2">
-        <v>37196</v>
+        <v>200111</v>
       </c>
       <c r="C144">
         <v>3.9616177951930943E-3</v>
@@ -10255,7 +10259,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="2">
-        <v>37226</v>
+        <v>200112</v>
       </c>
       <c r="C145">
         <v>2.990860052313618E-3</v>
@@ -10323,7 +10327,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="2">
-        <v>37257</v>
+        <v>200201</v>
       </c>
       <c r="C146">
         <v>3.0597491843887682E-3</v>
@@ -10391,7 +10395,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="2">
-        <v>37288</v>
+        <v>200202</v>
       </c>
       <c r="C147">
         <v>3.5033239520924409E-3</v>
@@ -10459,7 +10463,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="2">
-        <v>37316</v>
+        <v>200203</v>
       </c>
       <c r="C148">
         <v>3.43709231359359E-3</v>
@@ -10527,7 +10531,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="2">
-        <v>37347</v>
+        <v>200204</v>
       </c>
       <c r="C149">
         <v>2.9837689109435471E-3</v>
@@ -10595,7 +10599,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="2">
-        <v>37377</v>
+        <v>200205</v>
       </c>
       <c r="C150">
         <v>4.6874767336519954E-3</v>
@@ -10663,7 +10667,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="2">
-        <v>37408</v>
+        <v>200206</v>
       </c>
       <c r="C151">
         <v>5.3239395216989303E-3</v>
@@ -10731,7 +10735,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="2">
-        <v>37438</v>
+        <v>200207</v>
       </c>
       <c r="C152">
         <v>6.2630520740853679E-3</v>
@@ -10799,7 +10803,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="2">
-        <v>37469</v>
+        <v>200208</v>
       </c>
       <c r="C153">
         <v>7.0306076750504282E-3</v>
@@ -10867,7 +10871,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="2">
-        <v>37500</v>
+        <v>200209</v>
       </c>
       <c r="C154">
         <v>7.1180266963261907E-3</v>
@@ -10935,7 +10939,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="2">
-        <v>37530</v>
+        <v>200210</v>
       </c>
       <c r="C155">
         <v>9.6313632540230808E-3</v>
@@ -11003,7 +11007,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="2">
-        <v>37561</v>
+        <v>200211</v>
       </c>
       <c r="C156">
         <v>8.4216436948487475E-3</v>
@@ -11071,7 +11075,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="2">
-        <v>37591</v>
+        <v>200212</v>
       </c>
       <c r="C157">
         <v>6.72586819218175E-3</v>
@@ -11139,7 +11143,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="2">
-        <v>37622</v>
+        <v>200301</v>
       </c>
       <c r="C158">
         <v>7.6199089852817649E-3</v>
@@ -11207,7 +11211,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="2">
-        <v>37653</v>
+        <v>200302</v>
       </c>
       <c r="C159">
         <v>6.9580196085167849E-3</v>
@@ -11275,7 +11279,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="2">
-        <v>37681</v>
+        <v>200303</v>
       </c>
       <c r="C160">
         <v>6.6464379195522727E-3</v>
@@ -11343,7 +11347,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="2">
-        <v>37712</v>
+        <v>200304</v>
       </c>
       <c r="C161">
         <v>6.4213202364140163E-3</v>
@@ -11411,7 +11415,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="2">
-        <v>37742</v>
+        <v>200305</v>
       </c>
       <c r="C162">
         <v>5.8350359808656367E-3</v>
@@ -11479,7 +11483,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="2">
-        <v>37773</v>
+        <v>200306</v>
       </c>
       <c r="C163">
         <v>5.2054934693026326E-3</v>
@@ -11547,7 +11551,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="2">
-        <v>37803</v>
+        <v>200307</v>
       </c>
       <c r="C164">
         <v>3.5720119411946269E-3</v>
@@ -11615,7 +11619,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="2">
-        <v>37834</v>
+        <v>200308</v>
       </c>
       <c r="C165">
         <v>3.0805705642473679E-3</v>
@@ -11683,7 +11687,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="2">
-        <v>37865</v>
+        <v>200309</v>
       </c>
       <c r="C166">
         <v>2.9908380263146848E-3</v>
@@ -11751,7 +11755,7 @@
         <v>165</v>
       </c>
       <c r="B167" s="2">
-        <v>37895</v>
+        <v>200310</v>
       </c>
       <c r="C167">
         <v>1.6485822817320921E-3</v>
@@ -11819,7 +11823,7 @@
         <v>166</v>
       </c>
       <c r="B168" s="2">
-        <v>37926</v>
+        <v>200311</v>
       </c>
       <c r="C168">
         <v>-2.376384890022629E-3</v>
@@ -11887,7 +11891,7 @@
         <v>167</v>
       </c>
       <c r="B169" s="2">
-        <v>37956</v>
+        <v>200312</v>
       </c>
       <c r="C169">
         <v>-3.7762992558795019E-3</v>
@@ -11955,7 +11959,7 @@
         <v>168</v>
       </c>
       <c r="B170" s="2">
-        <v>37987</v>
+        <v>200401</v>
       </c>
       <c r="C170">
         <v>-4.3930655391438552E-3</v>
@@ -12023,7 +12027,7 @@
         <v>169</v>
       </c>
       <c r="B171" s="2">
-        <v>38018</v>
+        <v>200402</v>
       </c>
       <c r="C171">
         <v>-6.1853747613932458E-3</v>
@@ -12091,7 +12095,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="2">
-        <v>38047</v>
+        <v>200403</v>
       </c>
       <c r="C172">
         <v>-8.2842178827862087E-3</v>
@@ -12159,7 +12163,7 @@
         <v>171</v>
       </c>
       <c r="B173" s="2">
-        <v>38078</v>
+        <v>200404</v>
       </c>
       <c r="C173">
         <v>-6.556050119152914E-3</v>
@@ -12227,7 +12231,7 @@
         <v>172</v>
       </c>
       <c r="B174" s="2">
-        <v>38108</v>
+        <v>200405</v>
       </c>
       <c r="C174">
         <v>-4.8027956283519368E-3</v>
@@ -12295,7 +12299,7 @@
         <v>173</v>
       </c>
       <c r="B175" s="2">
-        <v>38139</v>
+        <v>200406</v>
       </c>
       <c r="C175">
         <v>-4.1154894257557084E-3</v>
@@ -12363,7 +12367,7 @@
         <v>174</v>
       </c>
       <c r="B176" s="2">
-        <v>38169</v>
+        <v>200407</v>
       </c>
       <c r="C176">
         <v>-4.3269986502131579E-3</v>
@@ -12431,7 +12435,7 @@
         <v>175</v>
       </c>
       <c r="B177" s="2">
-        <v>38200</v>
+        <v>200408</v>
       </c>
       <c r="C177">
         <v>-2.5846214218112331E-3</v>
@@ -12499,7 +12503,7 @@
         <v>176</v>
       </c>
       <c r="B178" s="2">
-        <v>38231</v>
+        <v>200409</v>
       </c>
       <c r="C178">
         <v>-2.0518168399039039E-3</v>
@@ -12567,7 +12571,7 @@
         <v>177</v>
       </c>
       <c r="B179" s="2">
-        <v>38261</v>
+        <v>200410</v>
       </c>
       <c r="C179">
         <v>-1.537826321148906E-3</v>
@@ -12635,7 +12639,7 @@
         <v>178</v>
       </c>
       <c r="B180" s="2">
-        <v>38292</v>
+        <v>200411</v>
       </c>
       <c r="C180">
         <v>-2.1349358739684342E-3</v>
@@ -12703,7 +12707,7 @@
         <v>179</v>
       </c>
       <c r="B181" s="2">
-        <v>38322</v>
+        <v>200412</v>
       </c>
       <c r="C181">
         <v>-1.812308964339739E-3</v>
@@ -12771,7 +12775,7 @@
         <v>180</v>
       </c>
       <c r="B182" s="2">
-        <v>38353</v>
+        <v>200501</v>
       </c>
       <c r="C182">
         <v>-1.9594992011203599E-3</v>
@@ -12839,7 +12843,7 @@
         <v>181</v>
       </c>
       <c r="B183" s="2">
-        <v>38384</v>
+        <v>200502</v>
       </c>
       <c r="C183">
         <v>-2.1884166611731968E-3</v>
@@ -12907,7 +12911,7 @@
         <v>182</v>
       </c>
       <c r="B184" s="2">
-        <v>38412</v>
+        <v>200503</v>
       </c>
       <c r="C184">
         <v>-1.995480354033824E-3</v>
@@ -12975,7 +12979,7 @@
         <v>183</v>
       </c>
       <c r="B185" s="2">
-        <v>38443</v>
+        <v>200504</v>
       </c>
       <c r="C185">
         <v>-6.2833620288452944E-4</v>
@@ -13043,7 +13047,7 @@
         <v>184</v>
       </c>
       <c r="B186" s="2">
-        <v>38473</v>
+        <v>200505</v>
       </c>
       <c r="C186">
         <v>-7.2548592149489135E-5</v>
@@ -13111,7 +13115,7 @@
         <v>185</v>
       </c>
       <c r="B187" s="2">
-        <v>38504</v>
+        <v>200506</v>
       </c>
       <c r="C187">
         <v>-1.947586225487177E-3</v>
@@ -13179,7 +13183,7 @@
         <v>186</v>
       </c>
       <c r="B188" s="2">
-        <v>38534</v>
+        <v>200507</v>
       </c>
       <c r="C188">
         <v>-2.7653704092397619E-3</v>
@@ -13247,7 +13251,7 @@
         <v>187</v>
       </c>
       <c r="B189" s="2">
-        <v>38565</v>
+        <v>200508</v>
       </c>
       <c r="C189">
         <v>-2.2683902460208711E-3</v>
@@ -13315,7 +13319,7 @@
         <v>188</v>
       </c>
       <c r="B190" s="2">
-        <v>38596</v>
+        <v>200509</v>
       </c>
       <c r="C190">
         <v>-2.8443334742366171E-3</v>
@@ -13383,7 +13387,7 @@
         <v>189</v>
       </c>
       <c r="B191" s="2">
-        <v>38626</v>
+        <v>200510</v>
       </c>
       <c r="C191">
         <v>-1.453226118654059E-3</v>
@@ -13451,7 +13455,7 @@
         <v>190</v>
       </c>
       <c r="B192" s="2">
-        <v>38657</v>
+        <v>200511</v>
       </c>
       <c r="C192">
         <v>-5.6834206692218231E-4</v>
@@ -13519,7 +13523,7 @@
         <v>191</v>
       </c>
       <c r="B193" s="2">
-        <v>38687</v>
+        <v>200512</v>
       </c>
       <c r="C193">
         <v>-1.1305949880902381E-3</v>
@@ -13587,7 +13591,7 @@
         <v>192</v>
       </c>
       <c r="B194" s="2">
-        <v>38718</v>
+        <v>200601</v>
       </c>
       <c r="C194">
         <v>4.4306927650067471E-5</v>
@@ -13655,7 +13659,7 @@
         <v>193</v>
       </c>
       <c r="B195" s="2">
-        <v>38749</v>
+        <v>200602</v>
       </c>
       <c r="C195">
         <v>-6.2255362852452721E-6</v>
@@ -13723,7 +13727,7 @@
         <v>194</v>
       </c>
       <c r="B196" s="2">
-        <v>38777</v>
+        <v>200603</v>
       </c>
       <c r="C196">
         <v>5.6710675500117784E-4</v>
@@ -13791,7 +13795,7 @@
         <v>195</v>
       </c>
       <c r="B197" s="2">
-        <v>38808</v>
+        <v>200604</v>
       </c>
       <c r="C197">
         <v>4.7061890651609132E-4</v>
@@ -13859,7 +13863,7 @@
         <v>196</v>
       </c>
       <c r="B198" s="2">
-        <v>38838</v>
+        <v>200605</v>
       </c>
       <c r="C198">
         <v>7.4643964054151089E-4</v>
@@ -13927,7 +13931,7 @@
         <v>197</v>
       </c>
       <c r="B199" s="2">
-        <v>38869</v>
+        <v>200606</v>
       </c>
       <c r="C199">
         <v>1.10834800411685E-3</v>
@@ -13995,7 +13999,7 @@
         <v>198</v>
       </c>
       <c r="B200" s="2">
-        <v>38899</v>
+        <v>200607</v>
       </c>
       <c r="C200">
         <v>9.0915019407246389E-4</v>
@@ -14063,7 +14067,7 @@
         <v>199</v>
       </c>
       <c r="B201" s="2">
-        <v>38930</v>
+        <v>200608</v>
       </c>
       <c r="C201">
         <v>4.7806314543466288E-4</v>
@@ -14131,7 +14135,7 @@
         <v>200</v>
       </c>
       <c r="B202" s="2">
-        <v>38961</v>
+        <v>200609</v>
       </c>
       <c r="C202">
         <v>-7.7284593044551608E-4</v>
@@ -14199,7 +14203,7 @@
         <v>201</v>
       </c>
       <c r="B203" s="2">
-        <v>38991</v>
+        <v>200610</v>
       </c>
       <c r="C203">
         <v>-2.3002998483902951E-3</v>
@@ -14267,7 +14271,7 @@
         <v>202</v>
       </c>
       <c r="B204" s="2">
-        <v>39022</v>
+        <v>200611</v>
       </c>
       <c r="C204">
         <v>-1.087176739336185E-3</v>
@@ -14335,7 +14339,7 @@
         <v>203</v>
       </c>
       <c r="B205" s="2">
-        <v>39052</v>
+        <v>200612</v>
       </c>
       <c r="C205">
         <v>-1.3666433844699291E-3</v>
@@ -14403,7 +14407,7 @@
         <v>204</v>
       </c>
       <c r="B206" s="2">
-        <v>39083</v>
+        <v>200701</v>
       </c>
       <c r="C206">
         <v>-1.3227265248889389E-3</v>
@@ -14471,7 +14475,7 @@
         <v>205</v>
       </c>
       <c r="B207" s="2">
-        <v>39114</v>
+        <v>200702</v>
       </c>
       <c r="C207">
         <v>-8.1493074691411905E-4</v>
@@ -14539,7 +14543,7 @@
         <v>206</v>
       </c>
       <c r="B208" s="2">
-        <v>39142</v>
+        <v>200703</v>
       </c>
       <c r="C208">
         <v>2.9283215792695188E-4</v>
@@ -14607,7 +14611,7 @@
         <v>207</v>
       </c>
       <c r="B209" s="2">
-        <v>39173</v>
+        <v>200704</v>
       </c>
       <c r="C209">
         <v>7.4624714477937112E-4</v>
@@ -14675,7 +14679,7 @@
         <v>208</v>
       </c>
       <c r="B210" s="2">
-        <v>39203</v>
+        <v>200705</v>
       </c>
       <c r="C210">
         <v>-5.2090270755861719E-5</v>
@@ -14743,7 +14747,7 @@
         <v>209</v>
       </c>
       <c r="B211" s="2">
-        <v>39234</v>
+        <v>200706</v>
       </c>
       <c r="C211">
         <v>-1.58456907274287E-3</v>
@@ -14811,7 +14815,7 @@
         <v>210</v>
       </c>
       <c r="B212" s="2">
-        <v>39264</v>
+        <v>200707</v>
       </c>
       <c r="C212">
         <v>-5.3438575774894677E-4</v>
@@ -14879,7 +14883,7 @@
         <v>211</v>
       </c>
       <c r="B213" s="2">
-        <v>39295</v>
+        <v>200708</v>
       </c>
       <c r="C213">
         <v>2.4680806365403462E-4</v>
@@ -14947,7 +14951,7 @@
         <v>212</v>
       </c>
       <c r="B214" s="2">
-        <v>39326</v>
+        <v>200709</v>
       </c>
       <c r="C214">
         <v>4.308759325133872E-4</v>
@@ -15015,7 +15019,7 @@
         <v>213</v>
       </c>
       <c r="B215" s="2">
-        <v>39356</v>
+        <v>200710</v>
       </c>
       <c r="C215">
         <v>3.4214685094958238E-4</v>
@@ -15083,7 +15087,7 @@
         <v>214</v>
       </c>
       <c r="B216" s="2">
-        <v>39387</v>
+        <v>200711</v>
       </c>
       <c r="C216">
         <v>-1.955140600662854E-4</v>
@@ -15151,7 +15155,7 @@
         <v>215</v>
       </c>
       <c r="B217" s="2">
-        <v>39417</v>
+        <v>200712</v>
       </c>
       <c r="C217">
         <v>6.4826276805076105E-4</v>
@@ -15219,7 +15223,7 @@
         <v>216</v>
       </c>
       <c r="B218" s="2">
-        <v>39448</v>
+        <v>200801</v>
       </c>
       <c r="C218">
         <v>9.9521342241086063E-4</v>
@@ -15287,7 +15291,7 @@
         <v>217</v>
       </c>
       <c r="B219" s="2">
-        <v>39479</v>
+        <v>200802</v>
       </c>
       <c r="C219">
         <v>2.9044795198465692E-3</v>
@@ -15355,7 +15359,7 @@
         <v>218</v>
       </c>
       <c r="B220" s="2">
-        <v>39508</v>
+        <v>200803</v>
       </c>
       <c r="C220">
         <v>3.6927582524158122E-3</v>
@@ -15423,7 +15427,7 @@
         <v>219</v>
       </c>
       <c r="B221" s="2">
-        <v>39539</v>
+        <v>200804</v>
       </c>
       <c r="C221">
         <v>4.4508343391276711E-3</v>
@@ -15491,7 +15495,7 @@
         <v>220</v>
       </c>
       <c r="B222" s="2">
-        <v>39569</v>
+        <v>200805</v>
       </c>
       <c r="C222">
         <v>4.0009944034270356E-3</v>
@@ -15559,7 +15563,7 @@
         <v>221</v>
       </c>
       <c r="B223" s="2">
-        <v>39600</v>
+        <v>200806</v>
       </c>
       <c r="C223">
         <v>4.1540961936020826E-3</v>
@@ -15627,7 +15631,7 @@
         <v>222</v>
       </c>
       <c r="B224" s="2">
-        <v>39630</v>
+        <v>200807</v>
       </c>
       <c r="C224">
         <v>5.4329097618900759E-3</v>
@@ -15695,7 +15699,7 @@
         <v>223</v>
       </c>
       <c r="B225" s="2">
-        <v>39661</v>
+        <v>200808</v>
       </c>
       <c r="C225">
         <v>6.4272502195842672E-3</v>
@@ -15763,7 +15767,7 @@
         <v>224</v>
       </c>
       <c r="B226" s="2">
-        <v>39692</v>
+        <v>200809</v>
       </c>
       <c r="C226">
         <v>5.7001711290396544E-3</v>
@@ -15831,7 +15835,7 @@
         <v>225</v>
       </c>
       <c r="B227" s="2">
-        <v>39722</v>
+        <v>200810</v>
       </c>
       <c r="C227">
         <v>7.8092094196602988E-3</v>
@@ -15899,7 +15903,7 @@
         <v>226</v>
       </c>
       <c r="B228" s="2">
-        <v>39753</v>
+        <v>200811</v>
       </c>
       <c r="C228">
         <v>1.163574013414405E-2</v>
@@ -15967,7 +15971,7 @@
         <v>227</v>
       </c>
       <c r="B229" s="2">
-        <v>39783</v>
+        <v>200812</v>
       </c>
       <c r="C229">
         <v>1.338684029749246E-2</v>
@@ -16035,7 +16039,7 @@
         <v>228</v>
       </c>
       <c r="B230" s="2">
-        <v>39814</v>
+        <v>200901</v>
       </c>
       <c r="C230">
         <v>1.3644079031355149E-2</v>
@@ -16103,7 +16107,7 @@
         <v>229</v>
       </c>
       <c r="B231" s="2">
-        <v>39845</v>
+        <v>200902</v>
       </c>
       <c r="C231">
         <v>1.45119948610782E-2</v>
@@ -16171,7 +16175,7 @@
         <v>230</v>
       </c>
       <c r="B232" s="2">
-        <v>39873</v>
+        <v>200903</v>
       </c>
       <c r="C232">
         <v>1.7121095430638989E-2</v>
@@ -16239,7 +16243,7 @@
         <v>231</v>
       </c>
       <c r="B233" s="2">
-        <v>39904</v>
+        <v>200904</v>
       </c>
       <c r="C233">
         <v>1.5859413667906119E-2</v>
@@ -16307,7 +16311,7 @@
         <v>232</v>
       </c>
       <c r="B234" s="2">
-        <v>39934</v>
+        <v>200905</v>
       </c>
       <c r="C234">
         <v>1.445493873897841E-2</v>
@@ -16375,7 +16379,7 @@
         <v>233</v>
       </c>
       <c r="B235" s="2">
-        <v>39965</v>
+        <v>200906</v>
       </c>
       <c r="C235">
         <v>1.3923692820529091E-2</v>
@@ -16443,7 +16447,7 @@
         <v>234</v>
       </c>
       <c r="B236" s="2">
-        <v>39995</v>
+        <v>200907</v>
       </c>
       <c r="C236">
         <v>1.4228755094354119E-2</v>
@@ -16511,7 +16515,7 @@
         <v>235</v>
       </c>
       <c r="B237" s="2">
-        <v>40026</v>
+        <v>200908</v>
       </c>
       <c r="C237">
         <v>1.277836258892359E-2</v>
@@ -16579,7 +16583,7 @@
         <v>236</v>
       </c>
       <c r="B238" s="2">
-        <v>40057</v>
+        <v>200909</v>
       </c>
       <c r="C238">
         <v>1.283491735497971E-2</v>
@@ -16647,7 +16651,7 @@
         <v>237</v>
       </c>
       <c r="B239" s="2">
-        <v>40087</v>
+        <v>200910</v>
       </c>
       <c r="C239">
         <v>1.199045397739046E-2</v>
@@ -16715,7 +16719,7 @@
         <v>238</v>
       </c>
       <c r="B240" s="2">
-        <v>40118</v>
+        <v>200911</v>
       </c>
       <c r="C240">
         <v>1.2704076105297359E-2</v>
@@ -16783,7 +16787,7 @@
         <v>239</v>
       </c>
       <c r="B241" s="2">
-        <v>40148</v>
+        <v>200912</v>
       </c>
       <c r="C241">
         <v>1.217272085810696E-2</v>
@@ -16851,7 +16855,7 @@
         <v>240</v>
       </c>
       <c r="B242" s="2">
-        <v>40179</v>
+        <v>201001</v>
       </c>
       <c r="C242">
         <v>1.181164374792501E-2</v>
@@ -16919,7 +16923,7 @@
         <v>241</v>
       </c>
       <c r="B243" s="2">
-        <v>40210</v>
+        <v>201002</v>
       </c>
       <c r="C243">
         <v>1.1914282118249299E-2</v>
@@ -16987,7 +16991,7 @@
         <v>242</v>
       </c>
       <c r="B244" s="2">
-        <v>40238</v>
+        <v>201003</v>
       </c>
       <c r="C244">
         <v>1.233147925953664E-2</v>
@@ -17055,7 +17059,7 @@
         <v>243</v>
       </c>
       <c r="B245" s="2">
-        <v>40269</v>
+        <v>201004</v>
       </c>
       <c r="C245">
         <v>1.109150433512061E-2</v>
@@ -17123,7 +17127,7 @@
         <v>244</v>
       </c>
       <c r="B246" s="2">
-        <v>40299</v>
+        <v>201005</v>
       </c>
       <c r="C246">
         <v>1.099208483101108E-2</v>
@@ -17191,7 +17195,7 @@
         <v>245</v>
       </c>
       <c r="B247" s="2">
-        <v>40330</v>
+        <v>201006</v>
       </c>
       <c r="C247">
         <v>1.2589575381664031E-2</v>
@@ -17259,7 +17263,7 @@
         <v>246</v>
       </c>
       <c r="B248" s="2">
-        <v>40360</v>
+        <v>201007</v>
       </c>
       <c r="C248">
         <v>1.316178136358321E-2</v>
@@ -17327,7 +17331,7 @@
         <v>247</v>
       </c>
       <c r="B249" s="2">
-        <v>40391</v>
+        <v>201008</v>
       </c>
       <c r="C249">
         <v>1.238132241745076E-2</v>
@@ -17395,7 +17399,7 @@
         <v>248</v>
       </c>
       <c r="B250" s="2">
-        <v>40422</v>
+        <v>201009</v>
       </c>
       <c r="C250">
         <v>1.2113499866146691E-2</v>
@@ -17463,7 +17467,7 @@
         <v>249</v>
       </c>
       <c r="B251" s="2">
-        <v>40452</v>
+        <v>201010</v>
       </c>
       <c r="C251">
         <v>1.02745033066812E-2</v>
@@ -17531,7 +17535,7 @@
         <v>250</v>
       </c>
       <c r="B252" s="2">
-        <v>40483</v>
+        <v>201011</v>
       </c>
       <c r="C252">
         <v>1.100589475101961E-2</v>
@@ -17599,7 +17603,7 @@
         <v>251</v>
       </c>
       <c r="B253" s="2">
-        <v>40513</v>
+        <v>201012</v>
       </c>
       <c r="C253">
         <v>1.10517797713708E-2</v>
@@ -17667,7 +17671,7 @@
         <v>252</v>
       </c>
       <c r="B254" s="2">
-        <v>40544</v>
+        <v>201101</v>
       </c>
       <c r="C254">
         <v>9.7117016631972156E-3</v>
@@ -17735,7 +17739,7 @@
         <v>253</v>
       </c>
       <c r="B255" s="2">
-        <v>40575</v>
+        <v>201102</v>
       </c>
       <c r="C255">
         <v>8.4799749591899648E-3</v>
@@ -17803,7 +17807,7 @@
         <v>254</v>
       </c>
       <c r="B256" s="2">
-        <v>40603</v>
+        <v>201103</v>
       </c>
       <c r="C256">
         <v>7.8872173595098665E-3</v>
@@ -17871,7 +17875,7 @@
         <v>255</v>
       </c>
       <c r="B257" s="2">
-        <v>40634</v>
+        <v>201104</v>
       </c>
       <c r="C257">
         <v>8.9747963057408529E-3</v>
@@ -17939,7 +17943,7 @@
         <v>256</v>
       </c>
       <c r="B258" s="2">
-        <v>40664</v>
+        <v>201105</v>
       </c>
       <c r="C258">
         <v>8.5589803768348731E-3</v>
@@ -18007,7 +18011,7 @@
         <v>257</v>
       </c>
       <c r="B259" s="2">
-        <v>40695</v>
+        <v>201106</v>
       </c>
       <c r="C259">
         <v>9.0339107456418547E-3</v>
@@ -18075,7 +18079,7 @@
         <v>258</v>
       </c>
       <c r="B260" s="2">
-        <v>40725</v>
+        <v>201107</v>
       </c>
       <c r="C260">
         <v>9.359586969857182E-3</v>
@@ -18143,7 +18147,7 @@
         <v>259</v>
       </c>
       <c r="B261" s="2">
-        <v>40756</v>
+        <v>201108</v>
       </c>
       <c r="C261">
         <v>1.0309548661143369E-2</v>
@@ -18211,7 +18215,7 @@
         <v>260</v>
       </c>
       <c r="B262" s="2">
-        <v>40787</v>
+        <v>201109</v>
       </c>
       <c r="C262">
         <v>1.1251900713560921E-2</v>
@@ -18279,7 +18283,7 @@
         <v>261</v>
       </c>
       <c r="B263" s="2">
-        <v>40817</v>
+        <v>201110</v>
       </c>
       <c r="C263">
         <v>1.246994883840318E-2</v>
@@ -18347,7 +18351,7 @@
         <v>262</v>
       </c>
       <c r="B264" s="2">
-        <v>40848</v>
+        <v>201111</v>
       </c>
       <c r="C264">
         <v>1.0440752184002779E-2</v>
@@ -18415,7 +18419,7 @@
         <v>263</v>
       </c>
       <c r="B265" s="2">
-        <v>40878</v>
+        <v>201112</v>
       </c>
       <c r="C265">
         <v>1.107217124151375E-2</v>
@@ -18483,7 +18487,7 @@
         <v>264</v>
       </c>
       <c r="B266" s="2">
-        <v>40909</v>
+        <v>201201</v>
       </c>
       <c r="C266">
         <v>1.122993227698948E-2</v>
@@ -18551,7 +18555,7 @@
         <v>265</v>
       </c>
       <c r="B267" s="2">
-        <v>40940</v>
+        <v>201202</v>
       </c>
       <c r="C267">
         <v>1.081448746709914E-2</v>
@@ -18619,7 +18623,7 @@
         <v>266</v>
       </c>
       <c r="B268" s="2">
-        <v>40969</v>
+        <v>201203</v>
       </c>
       <c r="C268">
         <v>1.0741364033155039E-2</v>
@@ -18687,7 +18691,7 @@
         <v>267</v>
       </c>
       <c r="B269" s="2">
-        <v>41000</v>
+        <v>201204</v>
       </c>
       <c r="C269">
         <v>1.021805800504003E-2</v>
@@ -18755,7 +18759,7 @@
         <v>268</v>
       </c>
       <c r="B270" s="2">
-        <v>41030</v>
+        <v>201205</v>
       </c>
       <c r="C270">
         <v>1.0495258128404881E-2</v>
@@ -18823,7 +18827,7 @@
         <v>269</v>
       </c>
       <c r="B271" s="2">
-        <v>41061</v>
+        <v>201206</v>
       </c>
       <c r="C271">
         <v>1.174651502968435E-2</v>
@@ -18891,7 +18895,7 @@
         <v>270</v>
       </c>
       <c r="B272" s="2">
-        <v>41091</v>
+        <v>201207</v>
       </c>
       <c r="C272">
         <v>1.1165690905431279E-2</v>
@@ -18959,7 +18963,7 @@
         <v>271</v>
       </c>
       <c r="B273" s="2">
-        <v>41122</v>
+        <v>201208</v>
       </c>
       <c r="C273">
         <v>1.127297810643187E-2</v>
@@ -19027,7 +19031,7 @@
         <v>272</v>
       </c>
       <c r="B274" s="2">
-        <v>41153</v>
+        <v>201209</v>
       </c>
       <c r="C274">
         <v>1.093441158606696E-2</v>
@@ -19095,7 +19099,7 @@
         <v>273</v>
       </c>
       <c r="B275" s="2">
-        <v>41183</v>
+        <v>201210</v>
       </c>
       <c r="C275">
         <v>1.0835719602969409E-2</v>
@@ -19163,7 +19167,7 @@
         <v>274</v>
       </c>
       <c r="B276" s="2">
-        <v>41214</v>
+        <v>201211</v>
       </c>
       <c r="C276">
         <v>1.1526498590670609E-2</v>
@@ -19231,7 +19235,7 @@
         <v>275</v>
       </c>
       <c r="B277" s="2">
-        <v>41244</v>
+        <v>201212</v>
       </c>
       <c r="C277">
         <v>1.151997960006809E-2</v>
@@ -19299,7 +19303,7 @@
         <v>276</v>
       </c>
       <c r="B278" s="2">
-        <v>41275</v>
+        <v>201301</v>
       </c>
       <c r="C278">
         <v>1.194367732953666E-2</v>
@@ -19367,7 +19371,7 @@
         <v>277</v>
       </c>
       <c r="B279" s="2">
-        <v>41306</v>
+        <v>201302</v>
       </c>
       <c r="C279">
         <v>1.202301232772696E-2</v>
@@ -19435,7 +19439,7 @@
         <v>278</v>
       </c>
       <c r="B280" s="2">
-        <v>41334</v>
+        <v>201303</v>
       </c>
       <c r="C280">
         <v>1.114963582217441E-2</v>
@@ -19503,7 +19507,7 @@
         <v>279</v>
       </c>
       <c r="B281" s="2">
-        <v>41365</v>
+        <v>201304</v>
       </c>
       <c r="C281">
         <v>1.0082786327481601E-2</v>
@@ -19571,7 +19575,7 @@
         <v>280</v>
       </c>
       <c r="B282" s="2">
-        <v>41395</v>
+        <v>201305</v>
       </c>
       <c r="C282">
         <v>9.8170247550113179E-3</v>
@@ -19639,7 +19643,7 @@
         <v>281</v>
       </c>
       <c r="B283" s="2">
-        <v>41426</v>
+        <v>201306</v>
       </c>
       <c r="C283">
         <v>9.799231552782282E-3</v>
@@ -19707,7 +19711,7 @@
         <v>282</v>
       </c>
       <c r="B284" s="2">
-        <v>41456</v>
+        <v>201307</v>
       </c>
       <c r="C284">
         <v>1.010181418841993E-2</v>
@@ -19775,7 +19779,7 @@
         <v>283</v>
       </c>
       <c r="B285" s="2">
-        <v>41487</v>
+        <v>201308</v>
       </c>
       <c r="C285">
         <v>9.8704544663048011E-3</v>
@@ -19843,7 +19847,7 @@
         <v>284</v>
       </c>
       <c r="B286" s="2">
-        <v>41518</v>
+        <v>201309</v>
       </c>
       <c r="C286">
         <v>1.0858628897482819E-2</v>
@@ -19911,7 +19915,7 @@
         <v>285</v>
       </c>
       <c r="B287" s="2">
-        <v>41548</v>
+        <v>201310</v>
       </c>
       <c r="C287">
         <v>1.0409633579461021E-2</v>
@@ -19979,7 +19983,7 @@
         <v>286</v>
       </c>
       <c r="B288" s="2">
-        <v>41579</v>
+        <v>201311</v>
       </c>
       <c r="C288">
         <v>8.4662327559272711E-3</v>
@@ -20047,7 +20051,7 @@
         <v>287</v>
       </c>
       <c r="B289" s="2">
-        <v>41609</v>
+        <v>201312</v>
       </c>
       <c r="C289">
         <v>8.2627251163729428E-3</v>
@@ -20115,7 +20119,7 @@
         <v>288</v>
       </c>
       <c r="B290" s="2">
-        <v>41640</v>
+        <v>201401</v>
       </c>
       <c r="C290">
         <v>6.2402598320103822E-3</v>
@@ -20183,7 +20187,7 @@
         <v>289</v>
       </c>
       <c r="B291" s="2">
-        <v>41671</v>
+        <v>201402</v>
       </c>
       <c r="C291">
         <v>8.0858501334094279E-3</v>
@@ -20251,7 +20255,7 @@
         <v>290</v>
       </c>
       <c r="B292" s="2">
-        <v>41699</v>
+        <v>201403</v>
       </c>
       <c r="C292">
         <v>7.8309691382197223E-3</v>
@@ -20319,7 +20323,7 @@
         <v>291</v>
       </c>
       <c r="B293" s="2">
-        <v>41730</v>
+        <v>201404</v>
       </c>
       <c r="C293">
         <v>7.9769356280677377E-3</v>
@@ -20387,7 +20391,7 @@
         <v>292</v>
       </c>
       <c r="B294" s="2">
-        <v>41760</v>
+        <v>201405</v>
       </c>
       <c r="C294">
         <v>8.4935613114607046E-3</v>
@@ -20455,7 +20459,7 @@
         <v>293</v>
       </c>
       <c r="B295" s="2">
-        <v>41791</v>
+        <v>201406</v>
       </c>
       <c r="C295">
         <v>6.9736163108218433E-3</v>
@@ -20523,7 +20527,7 @@
         <v>294</v>
       </c>
       <c r="B296" s="2">
-        <v>41821</v>
+        <v>201407</v>
       </c>
       <c r="C296">
         <v>7.7344768620618348E-3</v>
@@ -20591,7 +20595,7 @@
         <v>295</v>
       </c>
       <c r="B297" s="2">
-        <v>41852</v>
+        <v>201408</v>
       </c>
       <c r="C297">
         <v>8.1821448518242905E-3</v>
@@ -20659,7 +20663,7 @@
         <v>296</v>
       </c>
       <c r="B298" s="2">
-        <v>41883</v>
+        <v>201409</v>
       </c>
       <c r="C298">
         <v>7.2231388483385449E-3</v>
@@ -20727,7 +20731,7 @@
         <v>297</v>
       </c>
       <c r="B299" s="2">
-        <v>41913</v>
+        <v>201410</v>
       </c>
       <c r="C299">
         <v>7.7397199729873434E-3</v>
@@ -20795,7 +20799,7 @@
         <v>298</v>
       </c>
       <c r="B300" s="2">
-        <v>41944</v>
+        <v>201411</v>
       </c>
       <c r="C300">
         <v>7.6745482211039951E-3</v>
@@ -20863,7 +20867,7 @@
         <v>299</v>
       </c>
       <c r="B301" s="2">
-        <v>41974</v>
+        <v>201412</v>
       </c>
       <c r="C301">
         <v>7.7949738600937074E-3</v>
@@ -20931,7 +20935,7 @@
         <v>300</v>
       </c>
       <c r="B302" s="2">
-        <v>42005</v>
+        <v>201501</v>
       </c>
       <c r="C302">
         <v>8.3077401964815282E-3</v>
@@ -20999,7 +21003,7 @@
         <v>301</v>
       </c>
       <c r="B303" s="2">
-        <v>42036</v>
+        <v>201502</v>
       </c>
       <c r="C303">
         <v>8.794038852274335E-3</v>
@@ -21067,7 +21071,7 @@
         <v>302</v>
       </c>
       <c r="B304" s="2">
-        <v>42064</v>
+        <v>201503</v>
       </c>
       <c r="C304">
         <v>6.411882402110684E-3</v>
@@ -21135,7 +21139,7 @@
         <v>303</v>
       </c>
       <c r="B305" s="2">
-        <v>42095</v>
+        <v>201504</v>
       </c>
       <c r="C305">
         <v>4.4561572044378196E-3</v>
@@ -21203,7 +21207,7 @@
         <v>304</v>
       </c>
       <c r="B306" s="2">
-        <v>42125</v>
+        <v>201505</v>
       </c>
       <c r="C306">
         <v>6.297382293650889E-3</v>
@@ -21271,7 +21275,7 @@
         <v>305</v>
       </c>
       <c r="B307" s="2">
-        <v>42156</v>
+        <v>201506</v>
       </c>
       <c r="C307">
         <v>6.8326855220621832E-3</v>
@@ -21339,7 +21343,7 @@
         <v>306</v>
       </c>
       <c r="B308" s="2">
-        <v>42186</v>
+        <v>201507</v>
       </c>
       <c r="C308">
         <v>7.5156284695790517E-3</v>
@@ -21407,7 +21411,7 @@
         <v>307</v>
       </c>
       <c r="B309" s="2">
-        <v>42217</v>
+        <v>201508</v>
       </c>
       <c r="C309">
         <v>8.0783275058492632E-3</v>
@@ -21475,7 +21479,7 @@
         <v>308</v>
       </c>
       <c r="B310" s="2">
-        <v>42248</v>
+        <v>201509</v>
       </c>
       <c r="C310">
         <v>1.024942115298217E-2</v>
@@ -21543,7 +21547,7 @@
         <v>309</v>
       </c>
       <c r="B311" s="2">
-        <v>42278</v>
+        <v>201510</v>
       </c>
       <c r="C311">
         <v>1.004810156195822E-2</v>
@@ -21611,7 +21615,7 @@
         <v>310</v>
       </c>
       <c r="B312" s="2">
-        <v>42309</v>
+        <v>201511</v>
       </c>
       <c r="C312">
         <v>8.2469284188358607E-3</v>
@@ -21679,7 +21683,7 @@
         <v>311</v>
       </c>
       <c r="B313" s="2">
-        <v>42339</v>
+        <v>201512</v>
       </c>
       <c r="C313">
         <v>9.9091843845053856E-3</v>
